--- a/results/BPresults.xlsx
+++ b/results/BPresults.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="unweighted" sheetId="1" state="visible" r:id="rId3"/>
@@ -734,7 +734,7 @@
   </sheetPr>
   <dimension ref="A1:V305"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -21523,7 +21523,7 @@
   <dimension ref="A1:V305"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42311,7 +42311,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
